--- a/nomenclature_kit_de_montage.xlsx
+++ b/nomenclature_kit_de_montage.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gameiro Nicolas\Documents\EPSA\STUF2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josselin\Desktop\EPSA\Optimus\STUF2019\STUF2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D9375A-5AAA-4526-9202-EEF212A23B3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6110" windowHeight="8150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6113" windowHeight="8153" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="26">
   <si>
     <t>Kit :</t>
   </si>
@@ -184,12 +185,39 @@
       <t>Directeur Département</t>
     </r>
   </si>
+  <si>
+    <t>Carrosserie</t>
+  </si>
+  <si>
+    <t>Josselin KIEFEL</t>
+  </si>
+  <si>
+    <t>Bouton poussoir</t>
+  </si>
+  <si>
+    <t>Tige filetée</t>
+  </si>
+  <si>
+    <t>Ecrou</t>
+  </si>
+  <si>
+    <t>Rondelle</t>
+  </si>
+  <si>
+    <t>Velcro</t>
+  </si>
+  <si>
+    <t>Plaques lattérales</t>
+  </si>
+  <si>
+    <t>Nez</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +273,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -428,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,7 +490,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,16 +508,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,74 +830,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" customWidth="1"/>
-    <col min="6" max="6" width="21.90625" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" customWidth="1"/>
+    <col min="2" max="2" width="10.9296875" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.9296875" customWidth="1"/>
+    <col min="7" max="7" width="8.06640625" customWidth="1"/>
+    <col min="8" max="8" width="9.265625" customWidth="1"/>
+    <col min="9" max="9" width="9.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="1"/>
       <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="26" x14ac:dyDescent="0.6">
+      <c r="H1">
+        <f>SUM(E6:E25)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.75">
       <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="21" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="19.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="17"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="31" t="s">
+        <v>19</v>
+      </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8">
+        <v>4</v>
+      </c>
       <c r="F6" s="15" t="s">
         <v>11</v>
       </c>
@@ -872,12 +924,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="11">
+        <v>4</v>
+      </c>
       <c r="F7" s="14" t="s">
         <v>11</v>
       </c>
@@ -891,12 +947,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
       <c r="F8" s="14" t="s">
         <v>11</v>
       </c>
@@ -910,12 +970,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>8</v>
+      </c>
       <c r="F9" s="14" t="s">
         <v>11</v>
       </c>
@@ -929,8 +993,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A10" s="30" t="s">
+        <v>25</v>
+      </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -948,7 +1014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -967,7 +1033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -986,7 +1052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1005,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1024,7 +1090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1043,7 +1109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1062,7 +1128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1081,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1100,7 +1166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1119,7 +1185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1138,7 +1204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1157,7 +1223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1176,7 +1242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1195,7 +1261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1214,7 +1280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1233,7 +1299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1242,58 +1308,66 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:9" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A27" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="19.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="17"/>
+    <row r="28" spans="1:9" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.75">
+      <c r="A28" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="10">
+        <v>8</v>
+      </c>
       <c r="F28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="25"/>
+      <c r="G28" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="27"/>
       <c r="I28" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="10"/>
+    <row r="29" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A29" s="32" t="s">
+        <v>22</v>
+      </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="10"/>
+      <c r="E29" s="10">
+        <v>8</v>
+      </c>
       <c r="F29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="20"/>
+      <c r="G29" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="26"/>
       <c r="I29" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1302,15 +1376,15 @@
       <c r="F30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="20"/>
+      <c r="G30" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="26"/>
       <c r="I30" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1319,15 +1393,15 @@
       <c r="F31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="20"/>
+      <c r="G31" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="26"/>
       <c r="I31" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1336,15 +1410,15 @@
       <c r="F32" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="20"/>
+      <c r="G32" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="26"/>
       <c r="I32" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1353,19 +1427,19 @@
       <c r="F33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="20"/>
+      <c r="G33" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="26"/>
       <c r="I33" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="26" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
@@ -1384,11 +1458,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="A27:D27"/>
@@ -1396,13 +1465,18 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Gras italique"&amp;16&amp;KFF0000Nomenclature d'un kit de montage &amp;C&amp;20   
 &amp;R&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;18Date :&amp;C&amp;18Version : &amp;R&amp;18Page :       /      &amp;K00+000.</oddFooter>
+    <oddFooter>&amp;L&amp;18Date : 08/01/2019&amp;C&amp;18Version : 1.0</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/nomenclature_kit_de_montage.xlsx
+++ b/nomenclature_kit_de_montage.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josselin\Desktop\EPSA\Optimus\STUF2019\STUF2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\STUF2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D9375A-5AAA-4526-9202-EEF212A23B3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6113" windowHeight="8153" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6120" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -216,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,6 +489,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -510,16 +516,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -830,36 +829,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" customWidth="1"/>
-    <col min="2" max="2" width="10.9296875" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.9296875" customWidth="1"/>
-    <col min="7" max="7" width="8.06640625" customWidth="1"/>
-    <col min="8" max="8" width="9.265625" customWidth="1"/>
-    <col min="9" max="9" width="9.46484375" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="1"/>
       <c r="G1" s="7" t="s">
         <v>4</v>
@@ -869,40 +868,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="31" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="17"/>
@@ -924,8 +923,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="5"/>
@@ -947,8 +946,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="5"/>
@@ -970,8 +969,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="5"/>
@@ -993,8 +992,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="5"/>
@@ -1014,7 +1013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1033,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1052,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1071,7 +1070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1090,7 +1089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1109,7 +1108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1128,7 +1127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1147,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1166,7 +1165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1185,7 +1184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1204,7 +1203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1223,7 +1222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1242,7 +1241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1261,7 +1260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1280,7 +1279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1299,7 +1298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1308,25 +1307,25 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:9" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.75">
-      <c r="A28" s="31" t="s">
+    <row r="28" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="17"/>
@@ -1338,16 +1337,16 @@
       <c r="F28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="27"/>
+      <c r="G28" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="32"/>
       <c r="I28" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A29" s="32" t="s">
+    <row r="29" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="10"/>
@@ -1359,15 +1358,15 @@
       <c r="F29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="26"/>
+      <c r="G29" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="31"/>
       <c r="I29" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1376,15 +1375,15 @@
       <c r="F30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="26"/>
+      <c r="G30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="31"/>
       <c r="I30" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1393,15 +1392,15 @@
       <c r="F31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="26"/>
+      <c r="G31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="31"/>
       <c r="I31" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1410,15 +1409,15 @@
       <c r="F32" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="26"/>
+      <c r="G32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="31"/>
       <c r="I32" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1427,19 +1426,19 @@
       <c r="F33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="26"/>
+      <c r="G33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="31"/>
       <c r="I33" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
